--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf5-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf5-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,10 +540,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H2">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +552,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.4181017594141666</v>
+        <v>0.08314515397799999</v>
       </c>
       <c r="R2">
-        <v>2.508610556484999</v>
+        <v>0.498870923868</v>
       </c>
       <c r="S2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="T2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H3">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.1921469236609999</v>
+        <v>0.035086529331</v>
       </c>
       <c r="R3">
-        <v>1.152881541966</v>
+        <v>0.210519175986</v>
       </c>
       <c r="S3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="T3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H4">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>17.10243316855975</v>
+        <v>0.014286455967</v>
       </c>
       <c r="R4">
-        <v>68.409732674239</v>
+        <v>0.085718735802</v>
       </c>
       <c r="S4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="T4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,10 +726,10 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.2512335</v>
+        <v>0.2284785</v>
       </c>
       <c r="H5">
-        <v>2.502467</v>
+        <v>0.456957</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +738,96 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>31.927516</v>
+      </c>
+      <c r="N5">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O5">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P5">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q5">
+        <v>7.294750964405999</v>
+      </c>
+      <c r="R5">
+        <v>29.179003857624</v>
+      </c>
+      <c r="S5">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="T5">
+        <v>0.9728454303033116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.2284785</v>
+      </c>
+      <c r="H6">
+        <v>0.456957</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.03596566666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.107897</v>
-      </c>
-      <c r="O5">
-        <v>0.002534195830976933</v>
-      </c>
-      <c r="P5">
-        <v>0.003732431270590561</v>
-      </c>
-      <c r="Q5">
-        <v>0.04500144698316666</v>
-      </c>
-      <c r="R5">
-        <v>0.270008681899</v>
-      </c>
-      <c r="S5">
-        <v>0.002534195830976933</v>
-      </c>
-      <c r="T5">
-        <v>0.003732431270590561</v>
+      <c r="M6">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.042347</v>
+      </c>
+      <c r="O6">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P6">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q6">
+        <v>0.0032251263465</v>
+      </c>
+      <c r="R6">
+        <v>0.019350758079</v>
+      </c>
+      <c r="S6">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="T6">
+        <v>0.0006451658412300904</v>
       </c>
     </row>
   </sheetData>
